--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/AC/10/seed4/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/AC/10/seed4/result_data_KNN.xlsx
@@ -491,7 +491,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>-12.574</v>
+        <v>-12.906</v>
       </c>
       <c r="D4" t="n">
         <v>-8.23</v>
@@ -555,13 +555,13 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-21.562</v>
+        <v>-21.534</v>
       </c>
       <c r="B9" t="n">
         <v>4.86</v>
       </c>
       <c r="C9" t="n">
-        <v>-10.898</v>
+        <v>-10.52</v>
       </c>
       <c r="D9" t="n">
         <v>-7.01</v>
@@ -681,7 +681,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22</v>
+        <v>-21.898</v>
       </c>
       <c r="B18" t="n">
         <v>4.35</v>
@@ -709,7 +709,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-20.382</v>
+        <v>-20.563</v>
       </c>
       <c r="B20" t="n">
         <v>10.19</v>
@@ -757,7 +757,7 @@
         <v>7.87</v>
       </c>
       <c r="C23" t="n">
-        <v>-12.886</v>
+        <v>-12.676</v>
       </c>
       <c r="D23" t="n">
         <v>-8.59</v>
@@ -771,7 +771,7 @@
         <v>7.41</v>
       </c>
       <c r="C24" t="n">
-        <v>-12.766</v>
+        <v>-12.189</v>
       </c>
       <c r="D24" t="n">
         <v>-7.7</v>
@@ -799,7 +799,7 @@
         <v>6.56</v>
       </c>
       <c r="C26" t="n">
-        <v>-11.772</v>
+        <v>-12.696</v>
       </c>
       <c r="D26" t="n">
         <v>-9.31</v>
@@ -807,7 +807,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-22.124</v>
+        <v>-21.888</v>
       </c>
       <c r="B27" t="n">
         <v>5.54</v>
@@ -911,7 +911,7 @@
         <v>6.92</v>
       </c>
       <c r="C34" t="n">
-        <v>-11.348</v>
+        <v>-11.853</v>
       </c>
       <c r="D34" t="n">
         <v>-7.27</v>
@@ -925,7 +925,7 @@
         <v>10.18</v>
       </c>
       <c r="C35" t="n">
-        <v>-12.492</v>
+        <v>-12.316</v>
       </c>
       <c r="D35" t="n">
         <v>-9.9</v>
@@ -1107,7 +1107,7 @@
         <v>5.63</v>
       </c>
       <c r="C48" t="n">
-        <v>-12.384</v>
+        <v>-11.861</v>
       </c>
       <c r="D48" t="n">
         <v>-6.88</v>
@@ -1163,7 +1163,7 @@
         <v>6.39</v>
       </c>
       <c r="C52" t="n">
-        <v>-11.746</v>
+        <v>-11.749</v>
       </c>
       <c r="D52" t="n">
         <v>-6.93</v>
@@ -1359,7 +1359,7 @@
         <v>5.18</v>
       </c>
       <c r="C66" t="n">
-        <v>-11.31</v>
+        <v>-11.574</v>
       </c>
       <c r="D66" t="n">
         <v>-7.15</v>
@@ -1373,7 +1373,7 @@
         <v>5.53</v>
       </c>
       <c r="C67" t="n">
-        <v>-10.932</v>
+        <v>-10.875</v>
       </c>
       <c r="D67" t="n">
         <v>-6.43</v>
@@ -1395,7 +1395,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.61</v>
+        <v>-21.524</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1493,7 +1493,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-20.49</v>
+        <v>-20.287</v>
       </c>
       <c r="B76" t="n">
         <v>9.23</v>
@@ -1555,7 +1555,7 @@
         <v>11.21</v>
       </c>
       <c r="C80" t="n">
-        <v>-12.36</v>
+        <v>-12.491</v>
       </c>
       <c r="D80" t="n">
         <v>-6.63</v>
@@ -1577,7 +1577,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-21.74</v>
+        <v>-22.004</v>
       </c>
       <c r="B82" t="n">
         <v>5.26</v>
@@ -1821,7 +1821,7 @@
         <v>5.08</v>
       </c>
       <c r="C99" t="n">
-        <v>-11.876</v>
+        <v>-11.95</v>
       </c>
       <c r="D99" t="n">
         <v>-7.59</v>
